--- a/JupyterNotebooks/AveragedIntensites/CubeA-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/CubeA-HW10.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="CubeA-HW10.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="CubeA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>HKL</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1096,10 +1096,10 @@
         <v>1.018835717304256</v>
       </c>
       <c r="M13">
-        <v>0.9943642007518048</v>
+        <v>0.9943642007518049</v>
       </c>
       <c r="N13">
-        <v>1.008226233984115</v>
+        <v>1.008226233984116</v>
       </c>
       <c r="O13">
         <v>1.005509993206644</v>
@@ -1187,13 +1187,13 @@
         <v>1.244588672505775</v>
       </c>
       <c r="J15">
-        <v>0.9047947004779513</v>
+        <v>0.9047947004779515</v>
       </c>
       <c r="K15">
         <v>0.9842038492931192</v>
       </c>
       <c r="L15">
-        <v>0.6924514826557864</v>
+        <v>0.6924514826557866</v>
       </c>
       <c r="M15">
         <v>1.405328947258921</v>
@@ -1205,7 +1205,57 @@
         <v>1.046926846132283</v>
       </c>
       <c r="P15">
-        <v>1.00171826118272</v>
+        <v>1.001718261182721</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>0.2971667452826968</v>
+      </c>
+      <c r="D16">
+        <v>4.560219924018299</v>
+      </c>
+      <c r="E16">
+        <v>2.001981095267751</v>
+      </c>
+      <c r="F16">
+        <v>0.6088131020872382</v>
+      </c>
+      <c r="G16">
+        <v>0.2971667452826968</v>
+      </c>
+      <c r="H16">
+        <v>4.560219924018299</v>
+      </c>
+      <c r="I16">
+        <v>1.021121545906042</v>
+      </c>
+      <c r="J16">
+        <v>1.001612662612057</v>
+      </c>
+      <c r="K16">
+        <v>0.5187705011526013</v>
+      </c>
+      <c r="L16">
+        <v>1.183750921905119</v>
+      </c>
+      <c r="M16">
+        <v>0.2971667452826968</v>
+      </c>
+      <c r="N16">
+        <v>3.281100509643025</v>
+      </c>
+      <c r="O16">
+        <v>1.867045216663996</v>
+      </c>
+      <c r="P16">
+        <v>1.399179562278976</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/CubeA-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/CubeA-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -516,46 +519,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1213,7 +1216,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>0.2971667452826968</v>

--- a/JupyterNotebooks/AveragedIntensites/CubeA-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/CubeA-HW10.xlsx
@@ -1099,10 +1099,10 @@
         <v>1.018835717304256</v>
       </c>
       <c r="M13">
-        <v>0.9943642007518049</v>
+        <v>0.9943642007518048</v>
       </c>
       <c r="N13">
-        <v>1.008226233984116</v>
+        <v>1.008226233984115</v>
       </c>
       <c r="O13">
         <v>1.005509993206644</v>
@@ -1190,13 +1190,13 @@
         <v>1.244588672505775</v>
       </c>
       <c r="J15">
-        <v>0.9047947004779515</v>
+        <v>0.9047947004779513</v>
       </c>
       <c r="K15">
         <v>0.9842038492931192</v>
       </c>
       <c r="L15">
-        <v>0.6924514826557866</v>
+        <v>0.6924514826557864</v>
       </c>
       <c r="M15">
         <v>1.405328947258921</v>
@@ -1208,7 +1208,7 @@
         <v>1.046926846132283</v>
       </c>
       <c r="P15">
-        <v>1.001718261182721</v>
+        <v>1.00171826118272</v>
       </c>
     </row>
     <row r="16" spans="1:16">

--- a/JupyterNotebooks/AveragedIntensites/CubeA-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/CubeA-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -458,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,46 +528,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -919,46 +928,46 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.2971667452826968</v>
       </c>
       <c r="D10">
-        <v>9.14521200000002</v>
+        <v>4.560219924018299</v>
       </c>
       <c r="E10">
-        <v>1.220992000000006</v>
+        <v>2.001981095267751</v>
       </c>
       <c r="F10">
-        <v>0.337463999999999</v>
+        <v>0.6088131020872382</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.2971667452826968</v>
       </c>
       <c r="H10">
-        <v>9.14521200000002</v>
+        <v>4.560219924018299</v>
       </c>
       <c r="I10">
-        <v>0.4120560000000016</v>
+        <v>1.021121545906042</v>
       </c>
       <c r="J10">
-        <v>0.9657759999999975</v>
+        <v>1.001612662612057</v>
       </c>
       <c r="K10">
-        <v>0.04125599999999985</v>
+        <v>0.5187705011526013</v>
       </c>
       <c r="L10">
-        <v>1.755135999999996</v>
+        <v>1.183750921905119</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.2971667452826968</v>
       </c>
       <c r="N10">
-        <v>5.183102000000013</v>
+        <v>3.281100509643025</v>
       </c>
       <c r="O10">
-        <v>2.675917000000006</v>
+        <v>1.867045216663996</v>
       </c>
       <c r="P10">
-        <v>1.734736500000003</v>
+        <v>1.399179562278976</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -972,43 +981,43 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>15.3067125</v>
+        <v>3.155124670257167</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1.825479679016884</v>
       </c>
       <c r="F11">
-        <v>0.26</v>
+        <v>0.523861003056923</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>15.3067125</v>
+        <v>3.155124670257167</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.6036330832928489</v>
       </c>
       <c r="J11">
-        <v>0.13</v>
+        <v>1.822478844842863</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.08991372516420762</v>
       </c>
       <c r="L11">
-        <v>2.324599999999997</v>
+        <v>1.542380221747582</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>7.65335625</v>
+        <v>2.490302174637026</v>
       </c>
       <c r="O11">
-        <v>3.891678125</v>
+        <v>1.376116338082743</v>
       </c>
       <c r="P11">
-        <v>2.2526640625</v>
+        <v>1.195358903422309</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1019,46 +1028,46 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.4414554607616003</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>9.071704840294382</v>
+        <v>3.118104537590141</v>
       </c>
       <c r="E12">
-        <v>0.4311248954368022</v>
+        <v>1.829160854209823</v>
       </c>
       <c r="F12">
-        <v>0.5679021518847994</v>
+        <v>0.5250497543302786</v>
       </c>
       <c r="G12">
-        <v>0.4414554607616003</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>9.071704840294382</v>
+        <v>3.118104537590141</v>
       </c>
       <c r="I12">
-        <v>0.4258416617472024</v>
+        <v>0.6049359064023137</v>
       </c>
       <c r="J12">
-        <v>0.5197059086336024</v>
+        <v>1.827371515695005</v>
       </c>
       <c r="K12">
-        <v>0.379235703193597</v>
+        <v>0.09016502700544024</v>
       </c>
       <c r="L12">
-        <v>1.844372610355201</v>
+        <v>1.540548899633989</v>
       </c>
       <c r="M12">
-        <v>0.4415883868160004</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>4.751414867865592</v>
+        <v>2.473632695899981</v>
       </c>
       <c r="O12">
-        <v>2.628046837094396</v>
+        <v>1.36807878653256</v>
       </c>
       <c r="P12">
-        <v>1.710167904038398</v>
+        <v>1.191917061858374</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1069,46 +1078,46 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9941912862972733</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>1.007348738643518</v>
+        <v>3.142213515043991</v>
       </c>
       <c r="E13">
-        <v>1.009103729324713</v>
+        <v>1.825155188055773</v>
       </c>
       <c r="F13">
-        <v>1.011396218561071</v>
+        <v>0.5245803578848982</v>
       </c>
       <c r="G13">
-        <v>0.9941912862972733</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>1.007348738643518</v>
+        <v>3.142213515043991</v>
       </c>
       <c r="I13">
-        <v>1.012675381302899</v>
+        <v>0.603619780269128</v>
       </c>
       <c r="J13">
-        <v>0.9941704798363267</v>
+        <v>1.823924607449295</v>
       </c>
       <c r="K13">
-        <v>1.005545989498777</v>
+        <v>0.08997501029024453</v>
       </c>
       <c r="L13">
-        <v>1.018835717304256</v>
+        <v>1.543385894169888</v>
       </c>
       <c r="M13">
-        <v>0.9943642007518048</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1.008226233984115</v>
+        <v>2.483684351549882</v>
       </c>
       <c r="O13">
-        <v>1.005509993206644</v>
+        <v>1.372987265246166</v>
       </c>
       <c r="P13">
-        <v>1.006658442596104</v>
+        <v>1.194106794145402</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1119,46 +1128,46 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.049207211982178</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>1.101935239160308</v>
+        <v>9.14521200000002</v>
       </c>
       <c r="E14">
-        <v>0.9499416802454357</v>
+        <v>1.220992000000006</v>
       </c>
       <c r="F14">
-        <v>0.9593122484600921</v>
+        <v>0.337463999999999</v>
       </c>
       <c r="G14">
-        <v>1.049207211982178</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>1.101935239160308</v>
+        <v>9.14521200000002</v>
       </c>
       <c r="I14">
-        <v>0.9532427490876817</v>
+        <v>0.4120560000000016</v>
       </c>
       <c r="J14">
-        <v>1.035634345766385</v>
+        <v>0.9657759999999975</v>
       </c>
       <c r="K14">
-        <v>1.104377666525486</v>
+        <v>0.04125599999999985</v>
       </c>
       <c r="L14">
-        <v>0.8033871213925354</v>
+        <v>1.755135999999996</v>
       </c>
       <c r="M14">
-        <v>1.04955650524029</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>1.025938459702872</v>
+        <v>5.183102000000013</v>
       </c>
       <c r="O14">
-        <v>1.015099094962004</v>
+        <v>2.675917000000006</v>
       </c>
       <c r="P14">
-        <v>0.9946297828275128</v>
+        <v>1.734736500000003</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1169,46 +1178,46 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.404981298197705</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>0.7618241318236217</v>
+        <v>15.3067125</v>
       </c>
       <c r="E15">
-        <v>1.256172770119613</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>0.764729184388192</v>
+        <v>0.26</v>
       </c>
       <c r="G15">
-        <v>1.404981298197705</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>0.7618241318236217</v>
+        <v>15.3067125</v>
       </c>
       <c r="I15">
-        <v>1.244588672505775</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.9047947004779513</v>
+        <v>0.13</v>
       </c>
       <c r="K15">
-        <v>0.9842038492931192</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.6924514826557864</v>
+        <v>2.324599999999997</v>
       </c>
       <c r="M15">
-        <v>1.405328947258921</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1.008998450971618</v>
+        <v>7.65335625</v>
       </c>
       <c r="O15">
-        <v>1.046926846132283</v>
+        <v>3.891678125</v>
       </c>
       <c r="P15">
-        <v>1.00171826118272</v>
+        <v>2.2526640625</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1219,46 +1228,196 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.2971667452826968</v>
+        <v>0.4414554607616003</v>
       </c>
       <c r="D16">
-        <v>4.560219924018299</v>
+        <v>9.071704840294382</v>
       </c>
       <c r="E16">
-        <v>2.001981095267751</v>
+        <v>0.4311248954368022</v>
       </c>
       <c r="F16">
-        <v>0.6088131020872382</v>
+        <v>0.5679021518847994</v>
       </c>
       <c r="G16">
-        <v>0.2971667452826968</v>
+        <v>0.4414554607616003</v>
       </c>
       <c r="H16">
-        <v>4.560219924018299</v>
+        <v>9.071704840294382</v>
       </c>
       <c r="I16">
-        <v>1.021121545906042</v>
+        <v>0.4258416617472024</v>
       </c>
       <c r="J16">
-        <v>1.001612662612057</v>
+        <v>0.5197059086336024</v>
       </c>
       <c r="K16">
-        <v>0.5187705011526013</v>
+        <v>0.379235703193597</v>
       </c>
       <c r="L16">
-        <v>1.183750921905119</v>
+        <v>1.844372610355201</v>
       </c>
       <c r="M16">
-        <v>0.2971667452826968</v>
+        <v>0.4415883868160004</v>
       </c>
       <c r="N16">
-        <v>3.281100509643025</v>
+        <v>4.751414867865592</v>
       </c>
       <c r="O16">
-        <v>1.867045216663996</v>
+        <v>2.628046837094396</v>
       </c>
       <c r="P16">
-        <v>1.399179562278976</v>
+        <v>1.710167904038398</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9941912862972733</v>
+      </c>
+      <c r="D17">
+        <v>1.007348738643518</v>
+      </c>
+      <c r="E17">
+        <v>1.009103729324713</v>
+      </c>
+      <c r="F17">
+        <v>1.011396218561071</v>
+      </c>
+      <c r="G17">
+        <v>0.9941912862972733</v>
+      </c>
+      <c r="H17">
+        <v>1.007348738643518</v>
+      </c>
+      <c r="I17">
+        <v>1.012675381302899</v>
+      </c>
+      <c r="J17">
+        <v>0.9941704798363267</v>
+      </c>
+      <c r="K17">
+        <v>1.005545989498777</v>
+      </c>
+      <c r="L17">
+        <v>1.018835717304256</v>
+      </c>
+      <c r="M17">
+        <v>0.9943642007518049</v>
+      </c>
+      <c r="N17">
+        <v>1.008226233984116</v>
+      </c>
+      <c r="O17">
+        <v>1.005509993206644</v>
+      </c>
+      <c r="P17">
+        <v>1.006658442596104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>1.049207211982178</v>
+      </c>
+      <c r="D18">
+        <v>1.101935239160308</v>
+      </c>
+      <c r="E18">
+        <v>0.9499416802454357</v>
+      </c>
+      <c r="F18">
+        <v>0.9593122484600921</v>
+      </c>
+      <c r="G18">
+        <v>1.049207211982178</v>
+      </c>
+      <c r="H18">
+        <v>1.101935239160308</v>
+      </c>
+      <c r="I18">
+        <v>0.9532427490876817</v>
+      </c>
+      <c r="J18">
+        <v>1.035634345766385</v>
+      </c>
+      <c r="K18">
+        <v>1.104377666525486</v>
+      </c>
+      <c r="L18">
+        <v>0.8033871213925354</v>
+      </c>
+      <c r="M18">
+        <v>1.04955650524029</v>
+      </c>
+      <c r="N18">
+        <v>1.025938459702872</v>
+      </c>
+      <c r="O18">
+        <v>1.015099094962004</v>
+      </c>
+      <c r="P18">
+        <v>0.9946297828275128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>1.404981298197705</v>
+      </c>
+      <c r="D19">
+        <v>0.7618241318236217</v>
+      </c>
+      <c r="E19">
+        <v>1.256172770119613</v>
+      </c>
+      <c r="F19">
+        <v>0.764729184388192</v>
+      </c>
+      <c r="G19">
+        <v>1.404981298197705</v>
+      </c>
+      <c r="H19">
+        <v>0.7618241318236217</v>
+      </c>
+      <c r="I19">
+        <v>1.244588672505775</v>
+      </c>
+      <c r="J19">
+        <v>0.9047947004779515</v>
+      </c>
+      <c r="K19">
+        <v>0.9842038492931192</v>
+      </c>
+      <c r="L19">
+        <v>0.6924514826557866</v>
+      </c>
+      <c r="M19">
+        <v>1.405328947258921</v>
+      </c>
+      <c r="N19">
+        <v>1.008998450971618</v>
+      </c>
+      <c r="O19">
+        <v>1.046926846132283</v>
+      </c>
+      <c r="P19">
+        <v>1.001718261182721</v>
       </c>
     </row>
   </sheetData>
